--- a/selenium/test/data/Payments_Sample.xlsx
+++ b/selenium/test/data/Payments_Sample.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akshay\Workspace\Python\Clone\selenium\selenium\test\data\TNOQ-5168\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Akshay\Workspace\Python\Clone\selenium\selenium\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
     <sheet name="Refunds" sheetId="2" r:id="rId2"/>
+    <sheet name="Topup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="99">
   <si>
     <t>Type</t>
   </si>
@@ -115,58 +116,121 @@
     <t>true</t>
   </si>
   <si>
+    <t>MR101311</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>DW100200</t>
+  </si>
+  <si>
+    <t>P@ss1234</t>
+  </si>
+  <si>
+    <t>Testng 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>CCDUNREG</t>
+  </si>
+  <si>
+    <t>Testng 3</t>
+  </si>
+  <si>
+    <t>5123456789012346</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>akshay.zaveri@emaratech.ae</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Testng 2</t>
+  </si>
+  <si>
+    <t>AZ200320181</t>
+  </si>
+  <si>
+    <t>XPR</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGMerchantServices&gt;&lt;Header&gt;&lt;SrvType&gt;&lt;/SrvType&gt;&lt;SrcApp&gt;&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;20/03/2018 22:11:39&lt;/Timestamp&gt;&lt;SrcMsgId&gt;AZ200320181&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;20/03/2018 22:11:39&lt;/DateTime&gt;&lt;Status&gt;F&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-111&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;User id 'P@ss1234' is not mapped in noqodi. Kindly add user id 'P@ss1234' in your noqodi wallet.&lt;/ErrorDescription&gt;&lt;Trace&gt;&lt;/Trace&gt;&lt;TransactionRefNo&gt;&lt;/TransactionRefNo&gt;&lt;/ExceptionDetails&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGMerchantServices&gt;</t>
+  </si>
+  <si>
+    <t>EPG-PMT-111</t>
+  </si>
+  <si>
+    <t>paymentSequence</t>
+  </si>
+  <si>
+    <t>refundAmount</t>
+  </si>
+  <si>
+    <t>refundRemark</t>
+  </si>
+  <si>
+    <t>refundSourceType</t>
+  </si>
+  <si>
+    <t>refundWalletId</t>
+  </si>
+  <si>
+    <t>refundIBANBeneName</t>
+  </si>
+  <si>
+    <t>refundIBANBankCountry</t>
+  </si>
+  <si>
+    <t>refundIBANNumber</t>
+  </si>
+  <si>
+    <t>noqodiRevRef</t>
+  </si>
+  <si>
+    <t>reversalResponseXML</t>
+  </si>
+  <si>
+    <t>reversalErrorCode</t>
+  </si>
+  <si>
+    <t>REFUND</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>DW100200</t>
-  </si>
-  <si>
-    <t>P@ss1234</t>
-  </si>
-  <si>
-    <t>Testng 1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CCDUNREG</t>
-  </si>
-  <si>
-    <t>Testng 3</t>
-  </si>
-  <si>
-    <t>5123456789012346</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>akshay.zaveri@emaratech.ae</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>DW100029</t>
   </si>
   <si>
     <t>20</t>
@@ -175,48 +239,6 @@
     <t>CCD</t>
   </si>
   <si>
-    <t>Testng 2</t>
-  </si>
-  <si>
-    <t>paymentSequence</t>
-  </si>
-  <si>
-    <t>refundAmount</t>
-  </si>
-  <si>
-    <t>refundRemark</t>
-  </si>
-  <si>
-    <t>refundSourceType</t>
-  </si>
-  <si>
-    <t>refundWalletId</t>
-  </si>
-  <si>
-    <t>refundIBANBeneName</t>
-  </si>
-  <si>
-    <t>refundIBANBankCountry</t>
-  </si>
-  <si>
-    <t>refundIBANNumber</t>
-  </si>
-  <si>
-    <t>noqodiRevRef</t>
-  </si>
-  <si>
-    <t>reversalResponseXML</t>
-  </si>
-  <si>
-    <t>reversalErrorCode</t>
-  </si>
-  <si>
-    <t>REFUND</t>
-  </si>
-  <si>
-    <t>DW100029</t>
-  </si>
-  <si>
     <t>BKT</t>
   </si>
   <si>
@@ -226,20 +248,105 @@
     <t>AE123456789012345678901</t>
   </si>
   <si>
-    <t>MR101311</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>15000</t>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>FICode</t>
+  </si>
+  <si>
+    <t>FITransactionID</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>PayRequestNo</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>ResponseXML</t>
+  </si>
+  <si>
+    <t>TransactionXML</t>
+  </si>
+  <si>
+    <t>FIPAYMENTMESSAGE</t>
+  </si>
+  <si>
+    <t>26/03/2018</t>
+  </si>
+  <si>
+    <t>ADCB</t>
+  </si>
+  <si>
+    <t>ADCB260320180114901</t>
+  </si>
+  <si>
+    <t>250.25</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>06585011</t>
+  </si>
+  <si>
+    <t>EPG-PMT-000</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGFIServices&gt;&lt;Header&gt;&lt;SrvType&gt;&lt;/SrvType&gt;&lt;SrcApp&gt;&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;26/03/2018 12:07:50&lt;/Timestamp&gt;&lt;SrcMsgId&gt;ADCB260320180114901&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;26/03/2018 12:07:50&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;/ExceptionDetails&gt;&lt;PaymentMessageRes&gt;&lt;Payment&gt;&lt;EPGTransactionID&gt;06585011&lt;/EPGTransactionID&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;Amount&gt;250.25&lt;/Amount&gt;&lt;Currency&gt;AED&lt;/Currency&gt;&lt;/Payment&gt;&lt;/PaymentMessageRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGFIServices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;ADCB260320180114901&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;06585011&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;26/03/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;26/03/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;250.25&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;</t>
+  </si>
+  <si>
+    <t>ADCB260320180114902</t>
+  </si>
+  <si>
+    <t>06585012</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;&lt;EPGFIServices&gt;&lt;Header&gt;&lt;SrvType&gt;&lt;/SrvType&gt;&lt;SrcApp&gt;&lt;/SrcApp&gt;&lt;TargetApp&gt;&lt;/TargetApp&gt;&lt;Timestamp&gt;26/03/2018 12:08:52&lt;/Timestamp&gt;&lt;SrcMsgId&gt;ADCB260320180114902&lt;/SrcMsgId&gt;&lt;/Header&gt;&lt;Body&gt;&lt;SrvRes&gt;&lt;ExceptionDetails&gt;&lt;DateTime&gt;26/03/2018 12:08:52&lt;/DateTime&gt;&lt;Status&gt;S&lt;/Status&gt;&lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;&lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;&lt;/ExceptionDetails&gt;&lt;PaymentMessageRes&gt;&lt;Payment&gt;&lt;EPGTransactionID&gt;06585012&lt;/EPGTransactionID&gt;&lt;TranStatus&gt;S&lt;/TranStatus&gt;&lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;&lt;Amount&gt;250.25&lt;/Amount&gt;&lt;Currency&gt;AED&lt;/Currency&gt;&lt;/Payment&gt;&lt;/PaymentMessageRes&gt;&lt;/SrvRes&gt;&lt;/Body&gt;&lt;/EPGFIServices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;ADCB260320180114902&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;06585012&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;26/03/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;26/03/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;250.25&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,6 +356,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,16 +389,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +679,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -675,76 +795,76 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -752,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -760,77 +880,77 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>69</v>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -838,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -846,77 +966,77 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -924,7 +1044,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -932,77 +1052,163 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>70</v>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
       </c>
       <c r="P5" t="s">
         <v>51</v>
       </c>
       <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1059,264 +1265,425 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>